--- a/data/trans_dic/P0902-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2170394019598082</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3192736650150874</v>
+        <v>0.3192736650150873</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1950857081782336</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1222683768822204</v>
+        <v>0.1215418197263533</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1030042954806542</v>
+        <v>0.1016949381618618</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1014737696772827</v>
+        <v>0.1011680531414074</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2040595104408685</v>
+        <v>0.2062806657570843</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1972969249572113</v>
+        <v>0.1966216789389078</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2149785910588276</v>
+        <v>0.2172455580282251</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1923063145530283</v>
+        <v>0.1930032512151743</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2852361079468267</v>
+        <v>0.288279157034143</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1750109864087471</v>
+        <v>0.1741690853111927</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1685190457866917</v>
+        <v>0.1678180305340145</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1567795209101817</v>
+        <v>0.1559807795895423</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.259061541594714</v>
+        <v>0.2615584531703599</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.181500638268728</v>
+        <v>0.1794169969849014</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.147049895603116</v>
+        <v>0.144284253395448</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1383736362694788</v>
+        <v>0.1384850463166713</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2853189111999245</v>
+        <v>0.2856336043943955</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2524030214703741</v>
+        <v>0.2519318209681235</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2673941501096755</v>
+        <v>0.2699650448761026</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2411550900996786</v>
+        <v>0.2419449171716382</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3504945228082598</v>
+        <v>0.3536070708069946</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2163672187871798</v>
+        <v>0.2164061417994368</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2013413573143508</v>
+        <v>0.2027816443358673</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1885916042555885</v>
+        <v>0.1877433538598469</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3107884718889181</v>
+        <v>0.3128800124212833</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1176704253454079</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1860546598153631</v>
+        <v>0.186054659815363</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06564130221233105</v>
+        <v>0.06385612377109653</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08568473137399431</v>
+        <v>0.08788202470015249</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06234448715358888</v>
+        <v>0.06321571519511689</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1187385895947536</v>
+        <v>0.1176498027171392</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1080294278105356</v>
+        <v>0.1069838805542219</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1785070168226009</v>
+        <v>0.1778544842266744</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1272990276774193</v>
+        <v>0.1296436991291004</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2050451447353358</v>
+        <v>0.2063565219816288</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09001201875175939</v>
+        <v>0.09129764733782993</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1423714976688475</v>
+        <v>0.1407025297853595</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1034082204037747</v>
+        <v>0.1039700755579886</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1706715542743838</v>
+        <v>0.169564425895197</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09776622063672009</v>
+        <v>0.09677201042073587</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1290657111440863</v>
+        <v>0.1298305006840704</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.098796464408798</v>
+        <v>0.0994954604096335</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1631608269956843</v>
+        <v>0.1605933182408358</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.148270104151904</v>
+        <v>0.1463073473530443</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2264927953338439</v>
+        <v>0.2278297671480102</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1768331961325035</v>
+        <v>0.1784490941466757</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2480288561053932</v>
+        <v>0.2480050420117143</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1163385938220493</v>
+        <v>0.1160854994679534</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1737062010975957</v>
+        <v>0.1732639996157181</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1343943156889758</v>
+        <v>0.134993110106846</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2009692301903468</v>
+        <v>0.2017360309262132</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06833696043845874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08699779142716334</v>
+        <v>0.08699779142716332</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1038803311762651</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04484432175304081</v>
+        <v>0.04325345918769863</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08580009032313671</v>
+        <v>0.08885182342003825</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05075340611183018</v>
+        <v>0.05236779216838187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07165301836237523</v>
+        <v>0.06961533068962823</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08615235879729718</v>
+        <v>0.08492309988548576</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1347117266795833</v>
+        <v>0.1359645975084864</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.135599137555528</v>
+        <v>0.1362200606375785</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1320611266283865</v>
+        <v>0.1322501519927894</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06803031354369779</v>
+        <v>0.06864964264330906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1184599504489058</v>
+        <v>0.1194421354758866</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1001720470197924</v>
+        <v>0.09764803912543721</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1058044384638436</v>
+        <v>0.1053996136752188</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07158409996325139</v>
+        <v>0.07355924587701057</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1301524995504429</v>
+        <v>0.1317641741416612</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08683676039641144</v>
+        <v>0.08813043932221629</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1058919522349956</v>
+        <v>0.104827993813756</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1258498808110862</v>
+        <v>0.1257466307619542</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.184994397608255</v>
+        <v>0.1877941642924169</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1922578821602219</v>
+        <v>0.1946227547712644</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1673617040108854</v>
+        <v>0.1675758248157947</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09128986912958659</v>
+        <v>0.09140349954240291</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1518003714860272</v>
+        <v>0.1521666726789441</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1337155584441643</v>
+        <v>0.1334670464580449</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1321735418032499</v>
+        <v>0.1302794552956903</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.08989884133891912</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09122874656370313</v>
+        <v>0.09122874656370311</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1026315215953518</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02583939813166302</v>
+        <v>0.02590875117521925</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06565792944470314</v>
+        <v>0.06557204348097942</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06562116024542951</v>
+        <v>0.066302630232819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07287263520248491</v>
+        <v>0.07479612120207933</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07226981779162961</v>
+        <v>0.07257813200281595</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1209145611764649</v>
+        <v>0.1219654295840761</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1090063890263164</v>
+        <v>0.109118069379148</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1135507696892098</v>
+        <v>0.1121836738640136</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05190936060005601</v>
+        <v>0.05177761113905232</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0989940197205544</v>
+        <v>0.1010577476990331</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09450725578154302</v>
+        <v>0.09298003934635495</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0982915273477816</v>
+        <v>0.09827293241790125</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06699519074103888</v>
+        <v>0.06371552176378613</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1211156963466014</v>
+        <v>0.1180190081412007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1197093580004772</v>
+        <v>0.1205181925658415</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1120597190610632</v>
+        <v>0.1109602968617499</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1380211873779175</v>
+        <v>0.1406947191748861</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1927626582191045</v>
+        <v>0.1934899377857114</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.17978237259153</v>
+        <v>0.1807815382474318</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1508172678698362</v>
+        <v>0.1517893086108069</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08516534480756824</v>
+        <v>0.08757015381415797</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1430668455375043</v>
+        <v>0.1466439377340402</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.138469014092732</v>
+        <v>0.1368071564596935</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1234133079050413</v>
+        <v>0.1256706455754218</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07012842505237535</v>
+        <v>0.06969800107340335</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09954533906631005</v>
+        <v>0.09785322669031618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08135803360070368</v>
+        <v>0.08094953058202287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1143818392296609</v>
+        <v>0.1141307180165497</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1320111605181924</v>
+        <v>0.1312733461624295</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1855564648636604</v>
+        <v>0.1851728261742628</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1632153756422698</v>
+        <v>0.1637236085897464</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1853027472557055</v>
+        <v>0.1862904053448442</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1043798441628371</v>
+        <v>0.1044748444930017</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1465027807629651</v>
+        <v>0.1455542543250848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.126442296079715</v>
+        <v>0.1262099142627146</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1537474659316042</v>
+        <v>0.1539720886471186</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08880524516479912</v>
+        <v>0.08810280246847355</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1210085363983398</v>
+        <v>0.120514691091983</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1016304303593954</v>
+        <v>0.1022638890029097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1383850863852365</v>
+        <v>0.1377494004783441</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1571374551365483</v>
+        <v>0.1563911660242465</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2116729078952135</v>
+        <v>0.2125331055980455</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1907205066793173</v>
+        <v>0.19075665317975</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2083331249333967</v>
+        <v>0.2077235356823341</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1200677359394351</v>
+        <v>0.1204407305435616</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1648033217065884</v>
+        <v>0.1638665796506939</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1449571663817113</v>
+        <v>0.1435351254656224</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1701648644716033</v>
+        <v>0.1697704968154686</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>71422</v>
+        <v>70998</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>107530</v>
+        <v>106163</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>114462</v>
+        <v>114117</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>101342</v>
+        <v>102446</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>181973</v>
+        <v>181351</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>240761</v>
+        <v>243299</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>242222</v>
+        <v>243099</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>177684</v>
+        <v>179579</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>263650</v>
+        <v>262381</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>364652</v>
+        <v>363135</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>374320</v>
+        <v>372413</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>290037</v>
+        <v>292833</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>106022</v>
+        <v>104805</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>153511</v>
+        <v>150623</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>156085</v>
+        <v>156211</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>141699</v>
+        <v>141855</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>232800</v>
+        <v>232365</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>299462</v>
+        <v>302341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>303750</v>
+        <v>304744</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>218336</v>
+        <v>220275</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>325952</v>
+        <v>326010</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>435675</v>
+        <v>438792</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>450273</v>
+        <v>448248</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>347949</v>
+        <v>350291</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>70754</v>
+        <v>68830</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>83641</v>
+        <v>85786</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>56660</v>
+        <v>57452</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>114005</v>
+        <v>112960</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>114245</v>
+        <v>113140</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>194802</v>
+        <v>194090</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>128123</v>
+        <v>130483</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>228799</v>
+        <v>230263</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>192215</v>
+        <v>194960</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>294344</v>
+        <v>290894</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>198058</v>
+        <v>199134</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>354312</v>
+        <v>352013</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>105382</v>
+        <v>104310</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>125988</v>
+        <v>126734</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>89789</v>
+        <v>90424</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>156657</v>
+        <v>154192</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>156801</v>
+        <v>154726</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>247168</v>
+        <v>248627</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>177978</v>
+        <v>179605</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>276763</v>
+        <v>276736</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>248433</v>
+        <v>247893</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>359127</v>
+        <v>358213</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>257405</v>
+        <v>258552</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>417209</v>
+        <v>418801</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>50297</v>
+        <v>48513</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>75943</v>
+        <v>78644</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>41809</v>
+        <v>43138</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>74983</v>
+        <v>72851</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>85630</v>
+        <v>84408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>117980</v>
+        <v>119077</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>104555</v>
+        <v>105034</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>138353</v>
+        <v>138551</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>143920</v>
+        <v>145231</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>208597</v>
+        <v>210327</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>159756</v>
+        <v>155731</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>221567</v>
+        <v>220720</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>80288</v>
+        <v>82504</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>115200</v>
+        <v>116626</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>71533</v>
+        <v>72598</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110814</v>
+        <v>109700</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>125087</v>
+        <v>124985</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>162017</v>
+        <v>164469</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>148242</v>
+        <v>150066</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>175335</v>
+        <v>175559</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>193127</v>
+        <v>193367</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>267307</v>
+        <v>267952</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>213252</v>
+        <v>212856</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>276787</v>
+        <v>272821</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>11555</v>
+        <v>11586</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>33027</v>
+        <v>32984</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33250</v>
+        <v>33596</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>71040</v>
+        <v>72915</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24655</v>
+        <v>24761</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>54625</v>
+        <v>55100</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>53380</v>
+        <v>53435</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>103058</v>
+        <v>101818</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>40923</v>
+        <v>40819</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>94518</v>
+        <v>96489</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>94167</v>
+        <v>92645</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>185029</v>
+        <v>184994</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>29960</v>
+        <v>28494</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>60924</v>
+        <v>59366</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>60657</v>
+        <v>61067</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>109241</v>
+        <v>108170</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>47087</v>
+        <v>47999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>87084</v>
+        <v>87412</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>88039</v>
+        <v>88528</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>136881</v>
+        <v>137764</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>67141</v>
+        <v>69037</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>136599</v>
+        <v>140014</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>137970</v>
+        <v>136314</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>232319</v>
+        <v>236568</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>226573</v>
+        <v>225182</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>339273</v>
+        <v>333506</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>273955</v>
+        <v>272580</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>397831</v>
+        <v>396958</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>437613</v>
+        <v>435167</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>656643</v>
+        <v>655285</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>575627</v>
+        <v>577419</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>684513</v>
+        <v>688161</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>683249</v>
+        <v>683871</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1017755</v>
+        <v>1011166</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>871703</v>
+        <v>870101</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1102696</v>
+        <v>1104307</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>286915</v>
+        <v>284645</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>412424</v>
+        <v>410741</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>342218</v>
+        <v>344351</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>481317</v>
+        <v>479106</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>520906</v>
+        <v>518432</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>749063</v>
+        <v>752107</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>672632</v>
+        <v>672759</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>769588</v>
+        <v>767336</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>785939</v>
+        <v>788381</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1144889</v>
+        <v>1138381</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>999346</v>
+        <v>989542</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1220443</v>
+        <v>1217615</v>
       </c>
     </row>
     <row r="24">
